--- a/toursimemployment.xlsx
+++ b/toursimemployment.xlsx
@@ -155,40 +155,7 @@
     <t>Month_name</t>
   </si>
   <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
     <t>May</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>December</t>
   </si>
   <si>
     <t>new_hampshire</t>
@@ -231,6 +198,39 @@
   </si>
   <si>
     <t>district_of_columbia</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD322"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AP301" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="BB301" sqref="BB1:BB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +671,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -734,22 +734,22 @@
         <v>28</v>
       </c>
       <c r="AE1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AF1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AG1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="AH1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="AI1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="AJ1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AK1" t="s">
         <v>29</v>
@@ -764,13 +764,13 @@
         <v>32</v>
       </c>
       <c r="AO1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="AP1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="AQ1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="AR1" t="s">
         <v>33</v>
@@ -791,7 +791,7 @@
         <v>38</v>
       </c>
       <c r="AX1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="AY1" t="s">
         <v>39</v>
@@ -806,10 +806,10 @@
         <v>42</v>
       </c>
       <c r="BC1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="BD1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
@@ -973,10 +973,10 @@
         <v>1990</v>
       </c>
       <c r="BB2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD2">
         <v>12</v>
@@ -1143,10 +1143,10 @@
         <v>1990</v>
       </c>
       <c r="BB3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD3">
         <v>12</v>
@@ -1313,10 +1313,10 @@
         <v>1990</v>
       </c>
       <c r="BB4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD4">
         <v>12</v>
@@ -1483,10 +1483,10 @@
         <v>1990</v>
       </c>
       <c r="BB5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD5">
         <v>12</v>
@@ -1653,10 +1653,10 @@
         <v>1990</v>
       </c>
       <c r="BB6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD6">
         <v>12</v>
@@ -1823,10 +1823,10 @@
         <v>1990</v>
       </c>
       <c r="BB7" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD7">
         <v>12</v>
@@ -1993,10 +1993,10 @@
         <v>1990</v>
       </c>
       <c r="BB8" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD8">
         <v>12</v>
@@ -2163,10 +2163,10 @@
         <v>1990</v>
       </c>
       <c r="BB9" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD9">
         <v>12</v>
@@ -2333,10 +2333,10 @@
         <v>1990</v>
       </c>
       <c r="BB10" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD10">
         <v>12</v>
@@ -2503,10 +2503,10 @@
         <v>1990</v>
       </c>
       <c r="BB11" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC11" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD11">
         <v>12</v>
@@ -2673,10 +2673,10 @@
         <v>1990</v>
       </c>
       <c r="BB12" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD12">
         <v>12</v>
@@ -2843,10 +2843,10 @@
         <v>1990</v>
       </c>
       <c r="BB13" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC13" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD13">
         <v>12</v>
@@ -3013,10 +3013,10 @@
         <v>1991</v>
       </c>
       <c r="BB14" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC14" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD14">
         <v>12</v>
@@ -3183,10 +3183,10 @@
         <v>1991</v>
       </c>
       <c r="BB15" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC15" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD15">
         <v>12</v>
@@ -3353,10 +3353,10 @@
         <v>1991</v>
       </c>
       <c r="BB16" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC16" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD16">
         <v>12</v>
@@ -3523,10 +3523,10 @@
         <v>1991</v>
       </c>
       <c r="BB17" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC17" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD17">
         <v>12</v>
@@ -3693,10 +3693,10 @@
         <v>1991</v>
       </c>
       <c r="BB18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC18" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD18">
         <v>12</v>
@@ -3863,10 +3863,10 @@
         <v>1991</v>
       </c>
       <c r="BB19" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC19" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD19">
         <v>12</v>
@@ -4033,10 +4033,10 @@
         <v>1991</v>
       </c>
       <c r="BB20" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC20" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD20">
         <v>12</v>
@@ -4203,10 +4203,10 @@
         <v>1991</v>
       </c>
       <c r="BB21" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC21" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD21">
         <v>12</v>
@@ -4373,10 +4373,10 @@
         <v>1991</v>
       </c>
       <c r="BB22" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC22" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD22">
         <v>12</v>
@@ -4543,10 +4543,10 @@
         <v>1991</v>
       </c>
       <c r="BB23" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC23" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD23">
         <v>12</v>
@@ -4713,10 +4713,10 @@
         <v>1991</v>
       </c>
       <c r="BB24" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC24" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD24">
         <v>12</v>
@@ -4883,10 +4883,10 @@
         <v>1991</v>
       </c>
       <c r="BB25" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC25" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD25">
         <v>12</v>
@@ -5053,10 +5053,10 @@
         <v>1992</v>
       </c>
       <c r="BB26" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC26" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD26">
         <v>12</v>
@@ -5223,10 +5223,10 @@
         <v>1992</v>
       </c>
       <c r="BB27" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC27" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD27">
         <v>12</v>
@@ -5393,10 +5393,10 @@
         <v>1992</v>
       </c>
       <c r="BB28" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC28" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD28">
         <v>12</v>
@@ -5563,10 +5563,10 @@
         <v>1992</v>
       </c>
       <c r="BB29" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC29" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD29">
         <v>12</v>
@@ -5733,10 +5733,10 @@
         <v>1992</v>
       </c>
       <c r="BB30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD30">
         <v>12</v>
@@ -5903,10 +5903,10 @@
         <v>1992</v>
       </c>
       <c r="BB31" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC31" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD31">
         <v>12</v>
@@ -6073,10 +6073,10 @@
         <v>1992</v>
       </c>
       <c r="BB32" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC32" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD32">
         <v>12</v>
@@ -6243,10 +6243,10 @@
         <v>1992</v>
       </c>
       <c r="BB33" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC33" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD33">
         <v>12</v>
@@ -6413,10 +6413,10 @@
         <v>1992</v>
       </c>
       <c r="BB34" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC34" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD34">
         <v>12</v>
@@ -6583,10 +6583,10 @@
         <v>1992</v>
       </c>
       <c r="BB35" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC35" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD35">
         <v>12</v>
@@ -6753,10 +6753,10 @@
         <v>1992</v>
       </c>
       <c r="BB36" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC36" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD36">
         <v>12</v>
@@ -6923,10 +6923,10 @@
         <v>1992</v>
       </c>
       <c r="BB37" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC37" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD37">
         <v>12</v>
@@ -7093,10 +7093,10 @@
         <v>1993</v>
       </c>
       <c r="BB38" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC38" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD38">
         <v>12</v>
@@ -7263,10 +7263,10 @@
         <v>1993</v>
       </c>
       <c r="BB39" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC39" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD39">
         <v>12</v>
@@ -7433,10 +7433,10 @@
         <v>1993</v>
       </c>
       <c r="BB40" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC40" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD40">
         <v>12</v>
@@ -7603,10 +7603,10 @@
         <v>1993</v>
       </c>
       <c r="BB41" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC41" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD41">
         <v>12</v>
@@ -7773,10 +7773,10 @@
         <v>1993</v>
       </c>
       <c r="BB42" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC42" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD42">
         <v>12</v>
@@ -7943,10 +7943,10 @@
         <v>1993</v>
       </c>
       <c r="BB43" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC43" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD43">
         <v>12</v>
@@ -8113,10 +8113,10 @@
         <v>1993</v>
       </c>
       <c r="BB44" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC44" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD44">
         <v>12</v>
@@ -8283,10 +8283,10 @@
         <v>1993</v>
       </c>
       <c r="BB45" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC45" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD45">
         <v>12</v>
@@ -8453,10 +8453,10 @@
         <v>1993</v>
       </c>
       <c r="BB46" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC46" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD46">
         <v>12</v>
@@ -8623,10 +8623,10 @@
         <v>1993</v>
       </c>
       <c r="BB47" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC47" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD47">
         <v>12</v>
@@ -8793,10 +8793,10 @@
         <v>1993</v>
       </c>
       <c r="BB48" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC48" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD48">
         <v>12</v>
@@ -8963,10 +8963,10 @@
         <v>1993</v>
       </c>
       <c r="BB49" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC49" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD49">
         <v>12</v>
@@ -9133,10 +9133,10 @@
         <v>1994</v>
       </c>
       <c r="BB50" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC50" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD50">
         <v>12</v>
@@ -9303,10 +9303,10 @@
         <v>1994</v>
       </c>
       <c r="BB51" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC51" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD51">
         <v>12</v>
@@ -9473,10 +9473,10 @@
         <v>1994</v>
       </c>
       <c r="BB52" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC52" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD52">
         <v>12</v>
@@ -9643,10 +9643,10 @@
         <v>1994</v>
       </c>
       <c r="BB53" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC53" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD53">
         <v>12</v>
@@ -9813,10 +9813,10 @@
         <v>1994</v>
       </c>
       <c r="BB54" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC54" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD54">
         <v>12</v>
@@ -9983,10 +9983,10 @@
         <v>1994</v>
       </c>
       <c r="BB55" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC55" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD55">
         <v>12</v>
@@ -10153,10 +10153,10 @@
         <v>1994</v>
       </c>
       <c r="BB56" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC56" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD56">
         <v>12</v>
@@ -10323,10 +10323,10 @@
         <v>1994</v>
       </c>
       <c r="BB57" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC57" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD57">
         <v>12</v>
@@ -10493,10 +10493,10 @@
         <v>1994</v>
       </c>
       <c r="BB58" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC58" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD58">
         <v>12</v>
@@ -10663,10 +10663,10 @@
         <v>1994</v>
       </c>
       <c r="BB59" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC59" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD59">
         <v>12</v>
@@ -10833,10 +10833,10 @@
         <v>1994</v>
       </c>
       <c r="BB60" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC60" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD60">
         <v>12</v>
@@ -11003,10 +11003,10 @@
         <v>1994</v>
       </c>
       <c r="BB61" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC61" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD61">
         <v>12</v>
@@ -11173,10 +11173,10 @@
         <v>1995</v>
       </c>
       <c r="BB62" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC62" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD62">
         <v>12</v>
@@ -11343,10 +11343,10 @@
         <v>1995</v>
       </c>
       <c r="BB63" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC63" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD63">
         <v>12</v>
@@ -11513,10 +11513,10 @@
         <v>1995</v>
       </c>
       <c r="BB64" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC64" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD64">
         <v>12</v>
@@ -11683,10 +11683,10 @@
         <v>1995</v>
       </c>
       <c r="BB65" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC65" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD65">
         <v>12</v>
@@ -11853,10 +11853,10 @@
         <v>1995</v>
       </c>
       <c r="BB66" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC66" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD66">
         <v>12</v>
@@ -12023,10 +12023,10 @@
         <v>1995</v>
       </c>
       <c r="BB67" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC67" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD67">
         <v>12</v>
@@ -12193,10 +12193,10 @@
         <v>1995</v>
       </c>
       <c r="BB68" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC68" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD68">
         <v>12</v>
@@ -12363,10 +12363,10 @@
         <v>1995</v>
       </c>
       <c r="BB69" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC69" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD69">
         <v>12</v>
@@ -12533,10 +12533,10 @@
         <v>1995</v>
       </c>
       <c r="BB70" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC70" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD70">
         <v>12</v>
@@ -12703,10 +12703,10 @@
         <v>1995</v>
       </c>
       <c r="BB71" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC71" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD71">
         <v>12</v>
@@ -12873,10 +12873,10 @@
         <v>1995</v>
       </c>
       <c r="BB72" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC72" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD72">
         <v>12</v>
@@ -13043,10 +13043,10 @@
         <v>1995</v>
       </c>
       <c r="BB73" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC73" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD73">
         <v>12</v>
@@ -13213,10 +13213,10 @@
         <v>1996</v>
       </c>
       <c r="BB74" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC74" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD74">
         <v>12</v>
@@ -13383,10 +13383,10 @@
         <v>1996</v>
       </c>
       <c r="BB75" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC75" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD75">
         <v>12</v>
@@ -13553,10 +13553,10 @@
         <v>1996</v>
       </c>
       <c r="BB76" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC76" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD76">
         <v>12</v>
@@ -13723,10 +13723,10 @@
         <v>1996</v>
       </c>
       <c r="BB77" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC77" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD77">
         <v>12</v>
@@ -13893,10 +13893,10 @@
         <v>1996</v>
       </c>
       <c r="BB78" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC78" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD78">
         <v>12</v>
@@ -14063,10 +14063,10 @@
         <v>1996</v>
       </c>
       <c r="BB79" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC79" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD79">
         <v>12</v>
@@ -14233,10 +14233,10 @@
         <v>1996</v>
       </c>
       <c r="BB80" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC80" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD80">
         <v>12</v>
@@ -14403,10 +14403,10 @@
         <v>1996</v>
       </c>
       <c r="BB81" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC81" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD81">
         <v>12</v>
@@ -14573,10 +14573,10 @@
         <v>1996</v>
       </c>
       <c r="BB82" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC82" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD82">
         <v>12</v>
@@ -14743,10 +14743,10 @@
         <v>1996</v>
       </c>
       <c r="BB83" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC83" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD83">
         <v>12</v>
@@ -14913,10 +14913,10 @@
         <v>1996</v>
       </c>
       <c r="BB84" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC84" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD84">
         <v>12</v>
@@ -15083,10 +15083,10 @@
         <v>1996</v>
       </c>
       <c r="BB85" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC85" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD85">
         <v>12</v>
@@ -15253,10 +15253,10 @@
         <v>1997</v>
       </c>
       <c r="BB86" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC86" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD86">
         <v>12</v>
@@ -15423,10 +15423,10 @@
         <v>1997</v>
       </c>
       <c r="BB87" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC87" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD87">
         <v>12</v>
@@ -15593,10 +15593,10 @@
         <v>1997</v>
       </c>
       <c r="BB88" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC88" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD88">
         <v>12</v>
@@ -15763,10 +15763,10 @@
         <v>1997</v>
       </c>
       <c r="BB89" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC89" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD89">
         <v>12</v>
@@ -15933,10 +15933,10 @@
         <v>1997</v>
       </c>
       <c r="BB90" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC90" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD90">
         <v>12</v>
@@ -16103,10 +16103,10 @@
         <v>1997</v>
       </c>
       <c r="BB91" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC91" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD91">
         <v>12</v>
@@ -16273,10 +16273,10 @@
         <v>1997</v>
       </c>
       <c r="BB92" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC92" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD92">
         <v>12</v>
@@ -16443,10 +16443,10 @@
         <v>1997</v>
       </c>
       <c r="BB93" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC93" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD93">
         <v>12</v>
@@ -16613,10 +16613,10 @@
         <v>1997</v>
       </c>
       <c r="BB94" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC94" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD94">
         <v>12</v>
@@ -16783,10 +16783,10 @@
         <v>1997</v>
       </c>
       <c r="BB95" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC95" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD95">
         <v>12</v>
@@ -16953,10 +16953,10 @@
         <v>1997</v>
       </c>
       <c r="BB96" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC96" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD96">
         <v>12</v>
@@ -17123,10 +17123,10 @@
         <v>1997</v>
       </c>
       <c r="BB97" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC97" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD97">
         <v>12</v>
@@ -17293,10 +17293,10 @@
         <v>1998</v>
       </c>
       <c r="BB98" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC98" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD98">
         <v>12</v>
@@ -17463,10 +17463,10 @@
         <v>1998</v>
       </c>
       <c r="BB99" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC99" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD99">
         <v>12</v>
@@ -17633,10 +17633,10 @@
         <v>1998</v>
       </c>
       <c r="BB100" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC100" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD100">
         <v>12</v>
@@ -17803,10 +17803,10 @@
         <v>1998</v>
       </c>
       <c r="BB101" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC101" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD101">
         <v>12</v>
@@ -17973,10 +17973,10 @@
         <v>1998</v>
       </c>
       <c r="BB102" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC102" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD102">
         <v>12</v>
@@ -18143,10 +18143,10 @@
         <v>1998</v>
       </c>
       <c r="BB103" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC103" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD103">
         <v>12</v>
@@ -18313,10 +18313,10 @@
         <v>1998</v>
       </c>
       <c r="BB104" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC104" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD104">
         <v>12</v>
@@ -18483,10 +18483,10 @@
         <v>1998</v>
       </c>
       <c r="BB105" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC105" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD105">
         <v>12</v>
@@ -18653,10 +18653,10 @@
         <v>1998</v>
       </c>
       <c r="BB106" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC106" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD106">
         <v>12</v>
@@ -18823,10 +18823,10 @@
         <v>1998</v>
       </c>
       <c r="BB107" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC107" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD107">
         <v>12</v>
@@ -18993,10 +18993,10 @@
         <v>1998</v>
       </c>
       <c r="BB108" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC108" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD108">
         <v>12</v>
@@ -19163,10 +19163,10 @@
         <v>1998</v>
       </c>
       <c r="BB109" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC109" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD109">
         <v>12</v>
@@ -19333,10 +19333,10 @@
         <v>1999</v>
       </c>
       <c r="BB110" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC110" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD110">
         <v>12</v>
@@ -19503,10 +19503,10 @@
         <v>1999</v>
       </c>
       <c r="BB111" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC111" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD111">
         <v>12</v>
@@ -19673,10 +19673,10 @@
         <v>1999</v>
       </c>
       <c r="BB112" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC112" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD112">
         <v>12</v>
@@ -19843,10 +19843,10 @@
         <v>1999</v>
       </c>
       <c r="BB113" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC113" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD113">
         <v>12</v>
@@ -20013,10 +20013,10 @@
         <v>1999</v>
       </c>
       <c r="BB114" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC114" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD114">
         <v>12</v>
@@ -20183,10 +20183,10 @@
         <v>1999</v>
       </c>
       <c r="BB115" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC115" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD115">
         <v>12</v>
@@ -20353,10 +20353,10 @@
         <v>1999</v>
       </c>
       <c r="BB116" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC116" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD116">
         <v>12</v>
@@ -20523,10 +20523,10 @@
         <v>1999</v>
       </c>
       <c r="BB117" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC117" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD117">
         <v>12</v>
@@ -20693,10 +20693,10 @@
         <v>1999</v>
       </c>
       <c r="BB118" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC118" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD118">
         <v>12</v>
@@ -20863,10 +20863,10 @@
         <v>1999</v>
       </c>
       <c r="BB119" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC119" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD119">
         <v>12</v>
@@ -21033,10 +21033,10 @@
         <v>1999</v>
       </c>
       <c r="BB120" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC120" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD120">
         <v>12</v>
@@ -21203,10 +21203,10 @@
         <v>1999</v>
       </c>
       <c r="BB121" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC121" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD121">
         <v>12</v>
@@ -21373,10 +21373,10 @@
         <v>2000</v>
       </c>
       <c r="BB122" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC122" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD122">
         <v>12</v>
@@ -21543,10 +21543,10 @@
         <v>2000</v>
       </c>
       <c r="BB123" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC123" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD123">
         <v>12</v>
@@ -21713,10 +21713,10 @@
         <v>2000</v>
       </c>
       <c r="BB124" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC124" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD124">
         <v>12</v>
@@ -21883,10 +21883,10 @@
         <v>2000</v>
       </c>
       <c r="BB125" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC125" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD125">
         <v>12</v>
@@ -22053,10 +22053,10 @@
         <v>2000</v>
       </c>
       <c r="BB126" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC126" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD126">
         <v>12</v>
@@ -22223,10 +22223,10 @@
         <v>2000</v>
       </c>
       <c r="BB127" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC127" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD127">
         <v>12</v>
@@ -22393,10 +22393,10 @@
         <v>2000</v>
       </c>
       <c r="BB128" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC128" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD128">
         <v>12</v>
@@ -22563,10 +22563,10 @@
         <v>2000</v>
       </c>
       <c r="BB129" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC129" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD129">
         <v>12</v>
@@ -22733,10 +22733,10 @@
         <v>2000</v>
       </c>
       <c r="BB130" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC130" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD130">
         <v>12</v>
@@ -22903,10 +22903,10 @@
         <v>2000</v>
       </c>
       <c r="BB131" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC131" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD131">
         <v>12</v>
@@ -23073,10 +23073,10 @@
         <v>2000</v>
       </c>
       <c r="BB132" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC132" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD132">
         <v>12</v>
@@ -23243,10 +23243,10 @@
         <v>2000</v>
       </c>
       <c r="BB133" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC133" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD133">
         <v>12</v>
@@ -23413,10 +23413,10 @@
         <v>2001</v>
       </c>
       <c r="BB134" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC134" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD134">
         <v>12</v>
@@ -23583,10 +23583,10 @@
         <v>2001</v>
       </c>
       <c r="BB135" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC135" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD135">
         <v>12</v>
@@ -23753,10 +23753,10 @@
         <v>2001</v>
       </c>
       <c r="BB136" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC136" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD136">
         <v>12</v>
@@ -23923,10 +23923,10 @@
         <v>2001</v>
       </c>
       <c r="BB137" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC137" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD137">
         <v>12</v>
@@ -24093,10 +24093,10 @@
         <v>2001</v>
       </c>
       <c r="BB138" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC138" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD138">
         <v>12</v>
@@ -24263,10 +24263,10 @@
         <v>2001</v>
       </c>
       <c r="BB139" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC139" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD139">
         <v>12</v>
@@ -24433,10 +24433,10 @@
         <v>2001</v>
       </c>
       <c r="BB140" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC140" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD140">
         <v>12</v>
@@ -24603,10 +24603,10 @@
         <v>2001</v>
       </c>
       <c r="BB141" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC141" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD141">
         <v>12</v>
@@ -24773,10 +24773,10 @@
         <v>2001</v>
       </c>
       <c r="BB142" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC142" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD142">
         <v>12</v>
@@ -24943,10 +24943,10 @@
         <v>2001</v>
       </c>
       <c r="BB143" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC143" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD143">
         <v>12</v>
@@ -25113,10 +25113,10 @@
         <v>2001</v>
       </c>
       <c r="BB144" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC144" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD144">
         <v>12</v>
@@ -25283,10 +25283,10 @@
         <v>2001</v>
       </c>
       <c r="BB145" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC145" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD145">
         <v>12</v>
@@ -25453,10 +25453,10 @@
         <v>2002</v>
       </c>
       <c r="BB146" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC146" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD146">
         <v>12</v>
@@ -25623,10 +25623,10 @@
         <v>2002</v>
       </c>
       <c r="BB147" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC147" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD147">
         <v>12</v>
@@ -25793,10 +25793,10 @@
         <v>2002</v>
       </c>
       <c r="BB148" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC148" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD148">
         <v>12</v>
@@ -25963,10 +25963,10 @@
         <v>2002</v>
       </c>
       <c r="BB149" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC149" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD149">
         <v>12</v>
@@ -26133,10 +26133,10 @@
         <v>2002</v>
       </c>
       <c r="BB150" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC150" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD150">
         <v>12</v>
@@ -26303,10 +26303,10 @@
         <v>2002</v>
       </c>
       <c r="BB151" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC151" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD151">
         <v>12</v>
@@ -26473,10 +26473,10 @@
         <v>2002</v>
       </c>
       <c r="BB152" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC152" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD152">
         <v>12</v>
@@ -26643,10 +26643,10 @@
         <v>2002</v>
       </c>
       <c r="BB153" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC153" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD153">
         <v>12</v>
@@ -26813,10 +26813,10 @@
         <v>2002</v>
       </c>
       <c r="BB154" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC154" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD154">
         <v>12</v>
@@ -26983,10 +26983,10 @@
         <v>2002</v>
       </c>
       <c r="BB155" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC155" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD155">
         <v>12</v>
@@ -27153,10 +27153,10 @@
         <v>2002</v>
       </c>
       <c r="BB156" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC156" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD156">
         <v>12</v>
@@ -27323,10 +27323,10 @@
         <v>2002</v>
       </c>
       <c r="BB157" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC157" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD157">
         <v>12</v>
@@ -27493,10 +27493,10 @@
         <v>2003</v>
       </c>
       <c r="BB158" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC158" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD158">
         <v>12</v>
@@ -27663,10 +27663,10 @@
         <v>2003</v>
       </c>
       <c r="BB159" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC159" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD159">
         <v>12</v>
@@ -27833,10 +27833,10 @@
         <v>2003</v>
       </c>
       <c r="BB160" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC160" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD160">
         <v>12</v>
@@ -28003,10 +28003,10 @@
         <v>2003</v>
       </c>
       <c r="BB161" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC161" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD161">
         <v>12</v>
@@ -28173,10 +28173,10 @@
         <v>2003</v>
       </c>
       <c r="BB162" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC162" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD162">
         <v>12</v>
@@ -28343,10 +28343,10 @@
         <v>2003</v>
       </c>
       <c r="BB163" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC163" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD163">
         <v>12</v>
@@ -28513,10 +28513,10 @@
         <v>2003</v>
       </c>
       <c r="BB164" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC164" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD164">
         <v>12</v>
@@ -28683,10 +28683,10 @@
         <v>2003</v>
       </c>
       <c r="BB165" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC165" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD165">
         <v>12</v>
@@ -28853,10 +28853,10 @@
         <v>2003</v>
       </c>
       <c r="BB166" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC166" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD166">
         <v>12</v>
@@ -29023,10 +29023,10 @@
         <v>2003</v>
       </c>
       <c r="BB167" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC167" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD167">
         <v>12</v>
@@ -29193,10 +29193,10 @@
         <v>2003</v>
       </c>
       <c r="BB168" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC168" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD168">
         <v>12</v>
@@ -29363,10 +29363,10 @@
         <v>2003</v>
       </c>
       <c r="BB169" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC169" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD169">
         <v>12</v>
@@ -29533,10 +29533,10 @@
         <v>2004</v>
       </c>
       <c r="BB170" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC170" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD170">
         <v>12</v>
@@ -29703,10 +29703,10 @@
         <v>2004</v>
       </c>
       <c r="BB171" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC171" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD171">
         <v>12</v>
@@ -29873,10 +29873,10 @@
         <v>2004</v>
       </c>
       <c r="BB172" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC172" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD172">
         <v>12</v>
@@ -30043,10 +30043,10 @@
         <v>2004</v>
       </c>
       <c r="BB173" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC173" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD173">
         <v>12</v>
@@ -30213,10 +30213,10 @@
         <v>2004</v>
       </c>
       <c r="BB174" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC174" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD174">
         <v>12</v>
@@ -30383,10 +30383,10 @@
         <v>2004</v>
       </c>
       <c r="BB175" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC175" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD175">
         <v>12</v>
@@ -30553,10 +30553,10 @@
         <v>2004</v>
       </c>
       <c r="BB176" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC176" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD176">
         <v>12</v>
@@ -30723,10 +30723,10 @@
         <v>2004</v>
       </c>
       <c r="BB177" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC177" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD177">
         <v>12</v>
@@ -30893,10 +30893,10 @@
         <v>2004</v>
       </c>
       <c r="BB178" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC178" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD178">
         <v>12</v>
@@ -31063,10 +31063,10 @@
         <v>2004</v>
       </c>
       <c r="BB179" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC179" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD179">
         <v>12</v>
@@ -31233,10 +31233,10 @@
         <v>2004</v>
       </c>
       <c r="BB180" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC180" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD180">
         <v>12</v>
@@ -31403,10 +31403,10 @@
         <v>2004</v>
       </c>
       <c r="BB181" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC181" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD181">
         <v>12</v>
@@ -31573,10 +31573,10 @@
         <v>2005</v>
       </c>
       <c r="BB182" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC182" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD182">
         <v>12</v>
@@ -31743,10 +31743,10 @@
         <v>2005</v>
       </c>
       <c r="BB183" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC183" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD183">
         <v>12</v>
@@ -31913,10 +31913,10 @@
         <v>2005</v>
       </c>
       <c r="BB184" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC184" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD184">
         <v>12</v>
@@ -32083,10 +32083,10 @@
         <v>2005</v>
       </c>
       <c r="BB185" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC185" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD185">
         <v>12</v>
@@ -32253,10 +32253,10 @@
         <v>2005</v>
       </c>
       <c r="BB186" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC186" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD186">
         <v>12</v>
@@ -32423,10 +32423,10 @@
         <v>2005</v>
       </c>
       <c r="BB187" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC187" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD187">
         <v>12</v>
@@ -32593,10 +32593,10 @@
         <v>2005</v>
       </c>
       <c r="BB188" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC188" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD188">
         <v>12</v>
@@ -32763,10 +32763,10 @@
         <v>2005</v>
       </c>
       <c r="BB189" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC189" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD189">
         <v>12</v>
@@ -32933,10 +32933,10 @@
         <v>2005</v>
       </c>
       <c r="BB190" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC190" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD190">
         <v>12</v>
@@ -33103,10 +33103,10 @@
         <v>2005</v>
       </c>
       <c r="BB191" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC191" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD191">
         <v>12</v>
@@ -33273,10 +33273,10 @@
         <v>2005</v>
       </c>
       <c r="BB192" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC192" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD192">
         <v>12</v>
@@ -33443,10 +33443,10 @@
         <v>2005</v>
       </c>
       <c r="BB193" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC193" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD193">
         <v>12</v>
@@ -33613,10 +33613,10 @@
         <v>2006</v>
       </c>
       <c r="BB194" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC194" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD194">
         <v>12</v>
@@ -33783,10 +33783,10 @@
         <v>2006</v>
       </c>
       <c r="BB195" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC195" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD195">
         <v>12</v>
@@ -33953,10 +33953,10 @@
         <v>2006</v>
       </c>
       <c r="BB196" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC196" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD196">
         <v>12</v>
@@ -34123,10 +34123,10 @@
         <v>2006</v>
       </c>
       <c r="BB197" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC197" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD197">
         <v>12</v>
@@ -34293,10 +34293,10 @@
         <v>2006</v>
       </c>
       <c r="BB198" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC198" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD198">
         <v>12</v>
@@ -34463,10 +34463,10 @@
         <v>2006</v>
       </c>
       <c r="BB199" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC199" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD199">
         <v>12</v>
@@ -34633,10 +34633,10 @@
         <v>2006</v>
       </c>
       <c r="BB200" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC200" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD200">
         <v>12</v>
@@ -34803,10 +34803,10 @@
         <v>2006</v>
       </c>
       <c r="BB201" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC201" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD201">
         <v>12</v>
@@ -34973,10 +34973,10 @@
         <v>2006</v>
       </c>
       <c r="BB202" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC202" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD202">
         <v>12</v>
@@ -35143,10 +35143,10 @@
         <v>2006</v>
       </c>
       <c r="BB203" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC203" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD203">
         <v>12</v>
@@ -35313,10 +35313,10 @@
         <v>2006</v>
       </c>
       <c r="BB204" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC204" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD204">
         <v>12</v>
@@ -35483,10 +35483,10 @@
         <v>2006</v>
       </c>
       <c r="BB205" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC205" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD205">
         <v>12</v>
@@ -35653,10 +35653,10 @@
         <v>2007</v>
       </c>
       <c r="BB206" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC206" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD206">
         <v>12</v>
@@ -35823,10 +35823,10 @@
         <v>2007</v>
       </c>
       <c r="BB207" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC207" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD207">
         <v>12</v>
@@ -35993,10 +35993,10 @@
         <v>2007</v>
       </c>
       <c r="BB208" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC208" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD208">
         <v>12</v>
@@ -36163,10 +36163,10 @@
         <v>2007</v>
       </c>
       <c r="BB209" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC209" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD209">
         <v>12</v>
@@ -36333,10 +36333,10 @@
         <v>2007</v>
       </c>
       <c r="BB210" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC210" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD210">
         <v>12</v>
@@ -36503,10 +36503,10 @@
         <v>2007</v>
       </c>
       <c r="BB211" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC211" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD211">
         <v>12</v>
@@ -36673,10 +36673,10 @@
         <v>2007</v>
       </c>
       <c r="BB212" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC212" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD212">
         <v>12</v>
@@ -36843,10 +36843,10 @@
         <v>2007</v>
       </c>
       <c r="BB213" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC213" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD213">
         <v>12</v>
@@ -37013,10 +37013,10 @@
         <v>2007</v>
       </c>
       <c r="BB214" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC214" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD214">
         <v>12</v>
@@ -37183,10 +37183,10 @@
         <v>2007</v>
       </c>
       <c r="BB215" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC215" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD215">
         <v>12</v>
@@ -37353,10 +37353,10 @@
         <v>2007</v>
       </c>
       <c r="BB216" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC216" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD216">
         <v>12</v>
@@ -37523,10 +37523,10 @@
         <v>2007</v>
       </c>
       <c r="BB217" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC217" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD217">
         <v>12</v>
@@ -37693,10 +37693,10 @@
         <v>2008</v>
       </c>
       <c r="BB218" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC218" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD218">
         <v>12</v>
@@ -37863,10 +37863,10 @@
         <v>2008</v>
       </c>
       <c r="BB219" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC219" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD219">
         <v>12</v>
@@ -38033,10 +38033,10 @@
         <v>2008</v>
       </c>
       <c r="BB220" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC220" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD220">
         <v>12</v>
@@ -38203,10 +38203,10 @@
         <v>2008</v>
       </c>
       <c r="BB221" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC221" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD221">
         <v>12</v>
@@ -38373,10 +38373,10 @@
         <v>2008</v>
       </c>
       <c r="BB222" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC222" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD222">
         <v>12</v>
@@ -38543,10 +38543,10 @@
         <v>2008</v>
       </c>
       <c r="BB223" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC223" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD223">
         <v>12</v>
@@ -38713,10 +38713,10 @@
         <v>2008</v>
       </c>
       <c r="BB224" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC224" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD224">
         <v>12</v>
@@ -38883,10 +38883,10 @@
         <v>2008</v>
       </c>
       <c r="BB225" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC225" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD225">
         <v>12</v>
@@ -39053,10 +39053,10 @@
         <v>2008</v>
       </c>
       <c r="BB226" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC226" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD226">
         <v>12</v>
@@ -39223,10 +39223,10 @@
         <v>2008</v>
       </c>
       <c r="BB227" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC227" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD227">
         <v>12</v>
@@ -39393,10 +39393,10 @@
         <v>2008</v>
       </c>
       <c r="BB228" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC228" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD228">
         <v>12</v>
@@ -39563,10 +39563,10 @@
         <v>2008</v>
       </c>
       <c r="BB229" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC229" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD229">
         <v>12</v>
@@ -39733,10 +39733,10 @@
         <v>2009</v>
       </c>
       <c r="BB230" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC230" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD230">
         <v>12</v>
@@ -39903,10 +39903,10 @@
         <v>2009</v>
       </c>
       <c r="BB231" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC231" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD231">
         <v>12</v>
@@ -40073,10 +40073,10 @@
         <v>2009</v>
       </c>
       <c r="BB232" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC232" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD232">
         <v>12</v>
@@ -40243,10 +40243,10 @@
         <v>2009</v>
       </c>
       <c r="BB233" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC233" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD233">
         <v>12</v>
@@ -40413,10 +40413,10 @@
         <v>2009</v>
       </c>
       <c r="BB234" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC234" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD234">
         <v>12</v>
@@ -40583,10 +40583,10 @@
         <v>2009</v>
       </c>
       <c r="BB235" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC235" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD235">
         <v>12</v>
@@ -40753,10 +40753,10 @@
         <v>2009</v>
       </c>
       <c r="BB236" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC236" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD236">
         <v>12</v>
@@ -40923,10 +40923,10 @@
         <v>2009</v>
       </c>
       <c r="BB237" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC237" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD237">
         <v>12</v>
@@ -41093,10 +41093,10 @@
         <v>2009</v>
       </c>
       <c r="BB238" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC238" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD238">
         <v>12</v>
@@ -41263,10 +41263,10 @@
         <v>2009</v>
       </c>
       <c r="BB239" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC239" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD239">
         <v>12</v>
@@ -41433,10 +41433,10 @@
         <v>2009</v>
       </c>
       <c r="BB240" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC240" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD240">
         <v>12</v>
@@ -41603,10 +41603,10 @@
         <v>2009</v>
       </c>
       <c r="BB241" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC241" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD241">
         <v>12</v>
@@ -41773,10 +41773,10 @@
         <v>2010</v>
       </c>
       <c r="BB242" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC242" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD242">
         <v>12</v>
@@ -41943,10 +41943,10 @@
         <v>2010</v>
       </c>
       <c r="BB243" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC243" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD243">
         <v>12</v>
@@ -42113,10 +42113,10 @@
         <v>2010</v>
       </c>
       <c r="BB244" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC244" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD244">
         <v>12</v>
@@ -42283,10 +42283,10 @@
         <v>2010</v>
       </c>
       <c r="BB245" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC245" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD245">
         <v>12</v>
@@ -42453,10 +42453,10 @@
         <v>2010</v>
       </c>
       <c r="BB246" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC246" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD246">
         <v>12</v>
@@ -42623,10 +42623,10 @@
         <v>2010</v>
       </c>
       <c r="BB247" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC247" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD247">
         <v>12</v>
@@ -42793,10 +42793,10 @@
         <v>2010</v>
       </c>
       <c r="BB248" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC248" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD248">
         <v>12</v>
@@ -42963,10 +42963,10 @@
         <v>2010</v>
       </c>
       <c r="BB249" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC249" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD249">
         <v>12</v>
@@ -43133,10 +43133,10 @@
         <v>2010</v>
       </c>
       <c r="BB250" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC250" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD250">
         <v>12</v>
@@ -43303,10 +43303,10 @@
         <v>2010</v>
       </c>
       <c r="BB251" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC251" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD251">
         <v>12</v>
@@ -43473,10 +43473,10 @@
         <v>2010</v>
       </c>
       <c r="BB252" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC252" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD252">
         <v>12</v>
@@ -43643,10 +43643,10 @@
         <v>2010</v>
       </c>
       <c r="BB253" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC253" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD253">
         <v>12</v>
@@ -43813,10 +43813,10 @@
         <v>2011</v>
       </c>
       <c r="BB254" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC254" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD254">
         <v>12</v>
@@ -43983,10 +43983,10 @@
         <v>2011</v>
       </c>
       <c r="BB255" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC255" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD255">
         <v>12</v>
@@ -44153,10 +44153,10 @@
         <v>2011</v>
       </c>
       <c r="BB256" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC256" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD256">
         <v>12</v>
@@ -44323,10 +44323,10 @@
         <v>2011</v>
       </c>
       <c r="BB257" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC257" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD257">
         <v>12</v>
@@ -44493,10 +44493,10 @@
         <v>2011</v>
       </c>
       <c r="BB258" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC258" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD258">
         <v>12</v>
@@ -44663,10 +44663,10 @@
         <v>2011</v>
       </c>
       <c r="BB259" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC259" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD259">
         <v>12</v>
@@ -44833,10 +44833,10 @@
         <v>2011</v>
       </c>
       <c r="BB260" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC260" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD260">
         <v>12</v>
@@ -45003,10 +45003,10 @@
         <v>2011</v>
       </c>
       <c r="BB261" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC261" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD261">
         <v>12</v>
@@ -45173,10 +45173,10 @@
         <v>2011</v>
       </c>
       <c r="BB262" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC262" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD262">
         <v>12</v>
@@ -45343,10 +45343,10 @@
         <v>2011</v>
       </c>
       <c r="BB263" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC263" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD263">
         <v>12</v>
@@ -45513,10 +45513,10 @@
         <v>2011</v>
       </c>
       <c r="BB264" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC264" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD264">
         <v>12</v>
@@ -45683,10 +45683,10 @@
         <v>2011</v>
       </c>
       <c r="BB265" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC265" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD265">
         <v>12</v>
@@ -45853,10 +45853,10 @@
         <v>2012</v>
       </c>
       <c r="BB266" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC266" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD266">
         <v>12</v>
@@ -46023,10 +46023,10 @@
         <v>2012</v>
       </c>
       <c r="BB267" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC267" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD267">
         <v>12</v>
@@ -46193,10 +46193,10 @@
         <v>2012</v>
       </c>
       <c r="BB268" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC268" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD268">
         <v>12</v>
@@ -46363,10 +46363,10 @@
         <v>2012</v>
       </c>
       <c r="BB269" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC269" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD269">
         <v>12</v>
@@ -46533,10 +46533,10 @@
         <v>2012</v>
       </c>
       <c r="BB270" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC270" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD270">
         <v>12</v>
@@ -46703,10 +46703,10 @@
         <v>2012</v>
       </c>
       <c r="BB271" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC271" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD271">
         <v>12</v>
@@ -46873,10 +46873,10 @@
         <v>2012</v>
       </c>
       <c r="BB272" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC272" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD272">
         <v>12</v>
@@ -47043,10 +47043,10 @@
         <v>2012</v>
       </c>
       <c r="BB273" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC273" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD273">
         <v>12</v>
@@ -47213,10 +47213,10 @@
         <v>2012</v>
       </c>
       <c r="BB274" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC274" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD274">
         <v>12</v>
@@ -47383,10 +47383,10 @@
         <v>2012</v>
       </c>
       <c r="BB275" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC275" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD275">
         <v>12</v>
@@ -47553,10 +47553,10 @@
         <v>2012</v>
       </c>
       <c r="BB276" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC276" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD276">
         <v>12</v>
@@ -47723,10 +47723,10 @@
         <v>2012</v>
       </c>
       <c r="BB277" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC277" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD277">
         <v>12</v>
@@ -47893,10 +47893,10 @@
         <v>2013</v>
       </c>
       <c r="BB278" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC278" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD278">
         <v>12</v>
@@ -48063,10 +48063,10 @@
         <v>2013</v>
       </c>
       <c r="BB279" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC279" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD279">
         <v>12</v>
@@ -48233,10 +48233,10 @@
         <v>2013</v>
       </c>
       <c r="BB280" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC280" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD280">
         <v>12</v>
@@ -48403,10 +48403,10 @@
         <v>2013</v>
       </c>
       <c r="BB281" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC281" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD281">
         <v>12</v>
@@ -48573,10 +48573,10 @@
         <v>2013</v>
       </c>
       <c r="BB282" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC282" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD282">
         <v>12</v>
@@ -48743,10 +48743,10 @@
         <v>2013</v>
       </c>
       <c r="BB283" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC283" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD283">
         <v>12</v>
@@ -48913,10 +48913,10 @@
         <v>2013</v>
       </c>
       <c r="BB284" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC284" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD284">
         <v>12</v>
@@ -49083,10 +49083,10 @@
         <v>2013</v>
       </c>
       <c r="BB285" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC285" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD285">
         <v>12</v>
@@ -49253,10 +49253,10 @@
         <v>2013</v>
       </c>
       <c r="BB286" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC286" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD286">
         <v>12</v>
@@ -49423,10 +49423,10 @@
         <v>2013</v>
       </c>
       <c r="BB287" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC287" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD287">
         <v>12</v>
@@ -49593,10 +49593,10 @@
         <v>2013</v>
       </c>
       <c r="BB288" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC288" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD288">
         <v>12</v>
@@ -49763,10 +49763,10 @@
         <v>2013</v>
       </c>
       <c r="BB289" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC289" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD289">
         <v>12</v>
@@ -49933,10 +49933,10 @@
         <v>2014</v>
       </c>
       <c r="BB290" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC290" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD290">
         <v>12</v>
@@ -50103,10 +50103,10 @@
         <v>2014</v>
       </c>
       <c r="BB291" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC291" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD291">
         <v>12</v>
@@ -50273,10 +50273,10 @@
         <v>2014</v>
       </c>
       <c r="BB292" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC292" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD292">
         <v>12</v>
@@ -50443,10 +50443,10 @@
         <v>2014</v>
       </c>
       <c r="BB293" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC293" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD293">
         <v>12</v>
@@ -50613,10 +50613,10 @@
         <v>2014</v>
       </c>
       <c r="BB294" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC294" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD294">
         <v>12</v>
@@ -50783,10 +50783,10 @@
         <v>2014</v>
       </c>
       <c r="BB295" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC295" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD295">
         <v>12</v>
@@ -50953,10 +50953,10 @@
         <v>2014</v>
       </c>
       <c r="BB296" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC296" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD296">
         <v>12</v>
@@ -51123,10 +51123,10 @@
         <v>2014</v>
       </c>
       <c r="BB297" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC297" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD297">
         <v>12</v>
@@ -51293,10 +51293,10 @@
         <v>2014</v>
       </c>
       <c r="BB298" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC298" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD298">
         <v>12</v>
@@ -51463,10 +51463,10 @@
         <v>2014</v>
       </c>
       <c r="BB299" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC299" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD299">
         <v>12</v>
@@ -51633,10 +51633,10 @@
         <v>2014</v>
       </c>
       <c r="BB300" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC300" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD300">
         <v>12</v>
@@ -51803,10 +51803,10 @@
         <v>2014</v>
       </c>
       <c r="BB301" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC301" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD301">
         <v>12</v>
@@ -51973,10 +51973,10 @@
         <v>2015</v>
       </c>
       <c r="BB302" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC302" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD302">
         <v>12</v>
@@ -52143,10 +52143,10 @@
         <v>2015</v>
       </c>
       <c r="BB303" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC303" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD303">
         <v>12</v>
@@ -52313,10 +52313,10 @@
         <v>2015</v>
       </c>
       <c r="BB304" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC304" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD304">
         <v>12</v>
@@ -52483,10 +52483,10 @@
         <v>2015</v>
       </c>
       <c r="BB305" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC305" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD305">
         <v>12</v>
@@ -52653,10 +52653,10 @@
         <v>2015</v>
       </c>
       <c r="BB306" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC306" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD306">
         <v>12</v>
@@ -52823,10 +52823,10 @@
         <v>2015</v>
       </c>
       <c r="BB307" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC307" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD307">
         <v>12</v>
@@ -52993,10 +52993,10 @@
         <v>2015</v>
       </c>
       <c r="BB308" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC308" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD308">
         <v>12</v>
@@ -53163,10 +53163,10 @@
         <v>2015</v>
       </c>
       <c r="BB309" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC309" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD309">
         <v>12</v>
@@ -53333,10 +53333,10 @@
         <v>2015</v>
       </c>
       <c r="BB310" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC310" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD310">
         <v>12</v>
@@ -53503,10 +53503,10 @@
         <v>2015</v>
       </c>
       <c r="BB311" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="BC311" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD311">
         <v>12</v>
@@ -53673,10 +53673,10 @@
         <v>2015</v>
       </c>
       <c r="BB312" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="BC312" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD312">
         <v>12</v>
@@ -53843,10 +53843,10 @@
         <v>2015</v>
       </c>
       <c r="BB313" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="BC313" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD313">
         <v>12</v>
@@ -54013,10 +54013,10 @@
         <v>2016</v>
       </c>
       <c r="BB314" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="BC314" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD314">
         <v>12</v>
@@ -54183,10 +54183,10 @@
         <v>2016</v>
       </c>
       <c r="BB315" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="BC315" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD315">
         <v>12</v>
@@ -54353,10 +54353,10 @@
         <v>2016</v>
       </c>
       <c r="BB316" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BC316" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD316">
         <v>12</v>
@@ -54523,10 +54523,10 @@
         <v>2016</v>
       </c>
       <c r="BB317" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="BC317" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD317">
         <v>12</v>
@@ -54693,10 +54693,10 @@
         <v>2016</v>
       </c>
       <c r="BB318" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BC318" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD318">
         <v>12</v>
@@ -54863,10 +54863,10 @@
         <v>2016</v>
       </c>
       <c r="BB319" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BC319" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD319">
         <v>12</v>
@@ -55033,10 +55033,10 @@
         <v>2016</v>
       </c>
       <c r="BB320" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="BC320" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD320">
         <v>12</v>
@@ -55203,10 +55203,10 @@
         <v>2016</v>
       </c>
       <c r="BB321" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="BC321" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD321">
         <v>12</v>
@@ -55373,10 +55373,10 @@
         <v>2016</v>
       </c>
       <c r="BB322" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BC322" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="BD322">
         <v>12</v>
